--- a/manuscript/data/BayesianFitForecast/output/SIRV_two_strain-Influenza-negativebinomial-cal-17-fcst-10/model_fit_metrics.xlsx
+++ b/manuscript/data/BayesianFitForecast/output/SIRV_two_strain-Influenza-negativebinomial-cal-17-fcst-10/model_fit_metrics.xlsx
@@ -380,13 +380,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>5403751.0896365</v>
+        <v>1192057.70884408</v>
       </c>
       <c r="C2" t="n">
-        <v>5708336.82505889</v>
+        <v>167978496243.219</v>
       </c>
       <c r="D2" t="n">
-        <v>5406227.93101215</v>
+        <v>8087276.1799207</v>
       </c>
     </row>
     <row r="3">
@@ -394,13 +394,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1619421.5233442</v>
+        <v>1619354.83040346</v>
       </c>
       <c r="C3" t="n">
-        <v>1632811.61196472</v>
+        <v>1675532.91028309</v>
       </c>
       <c r="D3" t="n">
-        <v>1620023.55764489</v>
+        <v>1622785.81590323</v>
       </c>
     </row>
   </sheetData>

--- a/manuscript/data/BayesianFitForecast/output/SIRV_two_strain-Influenza-negativebinomial-cal-17-fcst-10/model_fit_metrics.xlsx
+++ b/manuscript/data/BayesianFitForecast/output/SIRV_two_strain-Influenza-negativebinomial-cal-17-fcst-10/model_fit_metrics.xlsx
@@ -380,13 +380,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>1192057.70884408</v>
+        <v>10482567.6771324</v>
       </c>
       <c r="C2" t="n">
-        <v>167978496243.219</v>
+        <v>63838446353.3055</v>
       </c>
       <c r="D2" t="n">
-        <v>8087276.1799207</v>
+        <v>8394316.75268444</v>
       </c>
     </row>
     <row r="3">
@@ -394,13 +394,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1619354.83040346</v>
+        <v>1619327.16855146</v>
       </c>
       <c r="C3" t="n">
-        <v>1675532.91028309</v>
+        <v>1667833.87656769</v>
       </c>
       <c r="D3" t="n">
-        <v>1622785.81590323</v>
+        <v>1622476.73057767</v>
       </c>
     </row>
   </sheetData>
